--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -911,9 +911,6 @@
     <t>git push origin master</t>
   </si>
   <si>
-    <t>Pushing to a remote</t>
-  </si>
-  <si>
     <t>moving to a new branch</t>
   </si>
   <si>
@@ -1297,6 +1294,9 @@
   </si>
   <si>
     <t>document the changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushing to a remote </t>
   </si>
 </sst>
 </file>
@@ -1837,9 +1837,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,6 +1847,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1977,7 +1977,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2063,11 +2062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137923072"/>
-        <c:axId val="39955264"/>
+        <c:axId val="41721856"/>
+        <c:axId val="41095104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137923072"/>
+        <c:axId val="41721856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39955264"/>
+        <c:crossAx val="41095104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2113,7 +2112,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39955264"/>
+        <c:axId val="41095104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137923072"/>
+        <c:crossAx val="41721856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2176,7 +2175,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2248,7 +2246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2321,7 +2318,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2490,11 +2486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39956416"/>
-        <c:axId val="39956992"/>
+        <c:axId val="41096832"/>
+        <c:axId val="41097408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39956416"/>
+        <c:axId val="41096832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2528,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39956992"/>
+        <c:crossAx val="41097408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39956992"/>
+        <c:axId val="41097408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39956416"/>
+        <c:crossAx val="41096832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5509,13 +5505,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D3" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="E3" s="10">
         <f>VALUE(LEFT(D3,2))*60+VALUE(RIGHT(D3,2))</f>
@@ -5525,7 +5521,7 @@
         <f>IFERROR(E3/$G$3,"-")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="69">
         <f>SUM(E3:E81)</f>
         <v>120</v>
       </c>
@@ -5588,7 +5584,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="68">
         <f>G3/60</f>
         <v>2</v>
       </c>
@@ -6572,19 +6568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6638,7 +6634,7 @@
       <c r="B1"/>
       <c r="C1" s="66"/>
       <c r="D1" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
@@ -6653,13 +6649,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -6680,7 +6676,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="24"/>
@@ -6746,7 +6742,7 @@
       <c r="H6" s="28"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>52</v>
       </c>
@@ -6781,105 +6777,105 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -6892,26 +6888,26 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7563,8 +7559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7603,7 +7599,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -7664,66 +7660,66 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
         <v>117</v>
       </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>203</v>
+      <c r="G8" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>122</v>
-      </c>
       <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
         <v>205</v>
-      </c>
-      <c r="H10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
       <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" t="s">
         <v>208</v>
-      </c>
-      <c r="H11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,143 +7727,143 @@
         <v>106</v>
       </c>
       <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
         <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>129</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
         <v>133</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>134</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" t="s">
         <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>146</v>
-      </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>149</v>
-      </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId2" display="Pushing to a remote"/>
     <hyperlink ref="D12" r:id="rId3"/>
     <hyperlink ref="D16" r:id="rId4"/>
     <hyperlink ref="D19" r:id="rId5"/>
@@ -7930,13 +7926,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="52" t="s">
         <v>155</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>156</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="49"/>
@@ -7948,13 +7944,13 @@
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="8"/>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
   <si>
     <t>Day</t>
   </si>
@@ -1298,12 +1298,146 @@
   <si>
     <t xml:space="preserve">Pushing to a remote </t>
   </si>
+  <si>
+    <t>Link an html file to a css</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stylesheet"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text/css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"*.css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1586,6 +1720,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2062,11 +2214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41721856"/>
-        <c:axId val="41095104"/>
+        <c:axId val="41936896"/>
+        <c:axId val="63795136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41721856"/>
+        <c:axId val="41936896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41095104"/>
+        <c:crossAx val="63795136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2264,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41095104"/>
+        <c:axId val="63795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41721856"/>
+        <c:crossAx val="41936896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2486,11 +2638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41096832"/>
-        <c:axId val="41097408"/>
+        <c:axId val="63796864"/>
+        <c:axId val="63797440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41096832"/>
+        <c:axId val="63796864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,12 +2680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41097408"/>
+        <c:crossAx val="63797440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41097408"/>
+        <c:axId val="63797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41096832"/>
+        <c:crossAx val="63796864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6607,10 +6759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK27"/>
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6908,6 +7060,14 @@
       </c>
       <c r="C27" s="57" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7559,7 +7719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
   <si>
     <t>Day</t>
   </si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>Label HTML</t>
-  </si>
-  <si>
-    <t>block element - separate lines (vertical)</t>
   </si>
   <si>
     <t>&lt;div&gt; text &lt;/div&gt;</t>
@@ -1432,12 +1429,108 @@
       <t>&gt;</t>
     </r>
   </si>
+  <si>
+    <t>Can be used multiple times on a css file</t>
+  </si>
+  <si>
+    <t>can only be used one time on each html file</t>
+  </si>
+  <si>
+    <t>&lt;p class="name"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p id="name"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes </t>
+  </si>
+  <si>
+    <t>Box Model</t>
+  </si>
+  <si>
+    <t>Allow to define space between elements &amp; any border</t>
+  </si>
+  <si>
+    <t>Box Sizing - Set the Height + Width of a box</t>
+  </si>
+  <si>
+    <t>Inline elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block elements - uses the full width of the browser and force linebreaks </t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h&gt; &lt;p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;img&gt; &lt;link&gt; &lt;strong&gt;</t>
+  </si>
+  <si>
+    <t>Set height width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes to an HTML </t>
+  </si>
+  <si>
+    <t>Asterisk - assign a rule to all elements in css</t>
+  </si>
+  <si>
+    <t>* {}</t>
+  </si>
+  <si>
+    <t>.nameOfattribute{
+}</t>
+  </si>
+  <si>
+    <t>#nameOfattribute{
+}</t>
+  </si>
+  <si>
+    <t>CSS - Box Model</t>
+  </si>
+  <si>
+    <t>set the margin</t>
+  </si>
+  <si>
+    <t>margin: NUMpx;</t>
+  </si>
+  <si>
+    <t>set the padding</t>
+  </si>
+  <si>
+    <t>padding: NUMpx;</t>
+  </si>
+  <si>
+    <t>Divide element - divide our page into sections</t>
+  </si>
+  <si>
+    <t>Ident</t>
+  </si>
+  <si>
+    <t>Ident the code</t>
+  </si>
+  <si>
+    <t>Beautify</t>
+  </si>
+  <si>
+    <t>Extension used (VSCODE)</t>
+  </si>
+  <si>
+    <t>F1 -&gt; Beautify File 
+F1 -&gt; Beautify Selection</t>
+  </si>
+  <si>
+    <t>Reading Material</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1739,8 +1832,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1767,12 +1867,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1780,6 +1874,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1925,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1969,10 +2081,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1983,12 +2091,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,8 +2102,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2214,11 +2372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41936896"/>
-        <c:axId val="63795136"/>
+        <c:axId val="74769920"/>
+        <c:axId val="74584000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41936896"/>
+        <c:axId val="74769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63795136"/>
+        <c:crossAx val="74584000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2422,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63795136"/>
+        <c:axId val="74584000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41936896"/>
+        <c:crossAx val="74769920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2638,11 +2796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63796864"/>
-        <c:axId val="63797440"/>
+        <c:axId val="74585728"/>
+        <c:axId val="74586304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63796864"/>
+        <c:axId val="74585728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,12 +2838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63797440"/>
+        <c:crossAx val="74586304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63797440"/>
+        <c:axId val="74586304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63796864"/>
+        <c:crossAx val="74585728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3621,15 +3779,130 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="1162050"/>
+          <a:ext cx="6105525" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="3667125"/>
+          <a:ext cx="3352800" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>461960</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3675,9 +3948,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>461960</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3725,7 +3998,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3773,7 +4046,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,7 +4094,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3869,7 +4142,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3920,7 +4193,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3971,7 +4244,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4022,7 +4295,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4065,7 +4338,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4108,7 +4381,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4144,7 +4417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4909,7 +5182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5104,7 +5377,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5657,13 +5930,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="D3" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="E3" s="10">
         <f>VALUE(LEFT(D3,2))*60+VALUE(RIGHT(D3,2))</f>
@@ -5673,7 +5946,7 @@
         <f>IFERROR(E3/$G$3,"-")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="64">
         <f>SUM(E3:E81)</f>
         <v>120</v>
       </c>
@@ -5736,7 +6009,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="63">
         <f>G3/60</f>
         <v>2</v>
       </c>
@@ -6687,7 +6960,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="62"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11">
@@ -6705,39 +6978,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="G1" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
@@ -6746,6 +7039,74 @@
       </c>
       <c r="D4" s="24" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6753,321 +7114,363 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="57"/>
-    <col min="2" max="2" width="84.5703125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="57"/>
-    <col min="5" max="5" width="18.5703125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="57"/>
-    <col min="8" max="8" width="23" style="57"/>
-    <col min="9" max="9" width="13.7109375" style="57"/>
-    <col min="10" max="10" width="64" style="57"/>
-    <col min="11" max="11" width="17.7109375" style="57"/>
-    <col min="12" max="1025" width="8.5703125" style="57"/>
+    <col min="1" max="1" width="28.85546875" style="78"/>
+    <col min="2" max="2" width="84.5703125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="78"/>
+    <col min="5" max="5" width="18.5703125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="78"/>
+    <col min="8" max="8" width="23" style="78"/>
+    <col min="9" max="9" width="22.5703125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="64" style="78"/>
+    <col min="11" max="11" width="17.7109375" style="78"/>
+    <col min="12" max="1025" width="8.5703125" style="78"/>
+    <col min="1026" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="66"/>
       <c r="D1" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>159</v>
+      <c r="B2" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2"/>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="24" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="I2" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>190</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="48"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="81"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="D6" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="27"/>
       <c r="H6" s="28"/>
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="D7" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="C8" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="C25" s="78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="78" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="63" t="s">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
         <v>211</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7076,15 +7479,16 @@
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="K3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7740,7 +8144,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7759,7 +8163,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -7768,16 +8172,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="49"/>
@@ -7789,10 +8193,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>111</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="8"/>
@@ -7802,10 +8206,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="27"/>
@@ -7814,210 +8218,210 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>199</v>
+        <v>208</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>202</v>
+      <c r="G8" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>121</v>
-      </c>
       <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" t="s">
         <v>204</v>
-      </c>
-      <c r="H10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
       <c r="G11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" t="s">
         <v>207</v>
-      </c>
-      <c r="H11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" t="s">
         <v>139</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8465,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8086,13 +8490,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="52" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>155</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="49"/>
@@ -8103,14 +8507,14 @@
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="52" t="s">
         <v>157</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>158</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="8"/>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,35 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>EpicApex</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0">
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EpicApex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fetch | pull difference</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -363,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -382,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="251">
   <si>
     <t>Day</t>
   </si>
@@ -887,9 +912,6 @@
     <t>Using CLI fetch and pull from origin</t>
   </si>
   <si>
-    <t>Fetch - pull - Origin/Master</t>
-  </si>
-  <si>
     <t xml:space="preserve">staging your project / file </t>
   </si>
   <si>
@@ -933,9 +955,6 @@
   </si>
   <si>
     <t>git fetch</t>
-  </si>
-  <si>
-    <t>Git Fetch Document</t>
   </si>
   <si>
     <t>Deleting a file from INDEX</t>
@@ -1255,9 +1274,6 @@
   </si>
   <si>
     <t>HTML CSS</t>
-  </si>
-  <si>
-    <t>24.1.18</t>
   </si>
   <si>
     <t>0200</t>
@@ -1525,12 +1541,126 @@
   <si>
     <t>Reading Material</t>
   </si>
+  <si>
+    <t xml:space="preserve">git fetch origin </t>
+  </si>
+  <si>
+    <t>git fetch origin branch</t>
+  </si>
+  <si>
+    <t>overide local repo(master) with origin</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>imports commits from a remote repository into your local repo</t>
+  </si>
+  <si>
+    <t>fetches the specified remote’s copy of the current branch and immediately merge it into the local copy</t>
+  </si>
+  <si>
+    <t>git pull &lt;branch&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>This is the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git fetch &lt;remote&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git merge origin/&lt;current-branch&gt;
+Since it is doing merge your commits were still there</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>After doing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you can reset your working copy with reset command.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is to ignore any changes in your local copy. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git reset --hard origin/master</t>
+    </r>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>24/1/18</t>
+  </si>
+  <si>
+    <t>27/1/18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1839,8 +1969,33 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1895,6 +2050,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1925,7 +2086,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1970,12 +2131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2105,9 +2260,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2159,6 +2311,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2287,6 +2451,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2372,11 +2537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74769920"/>
-        <c:axId val="74584000"/>
+        <c:axId val="80602624"/>
+        <c:axId val="68579264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74769920"/>
+        <c:axId val="80602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74584000"/>
+        <c:crossAx val="68579264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2422,7 +2587,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74584000"/>
+        <c:axId val="68579264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74769920"/>
+        <c:crossAx val="80602624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2485,6 +2650,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,6 +2722,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2628,6 +2795,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2635,9 +2803,15 @@
             <c:strRef>
               <c:f>'Duration Meter'!$C$3:$C$179</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.1.18</c:v>
+                  <c:v>24/1/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27/1/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7/2/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2649,13 +2823,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2796,11 +2970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74585728"/>
-        <c:axId val="74586304"/>
+        <c:axId val="68580992"/>
+        <c:axId val="68581568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74585728"/>
+        <c:axId val="68580992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,12 +3012,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74586304"/>
+        <c:crossAx val="68581568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74586304"/>
+        <c:axId val="68581568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +3065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74585728"/>
+        <c:crossAx val="68580992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5387,10 +5561,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3427234</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>389722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5438,10 +5612,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3427234</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>389722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5491,7 +5665,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5534,7 +5708,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5859,8 +6033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E3" s="10">
         <f>VALUE(LEFT(D3,2))*60+VALUE(RIGHT(D3,2))</f>
@@ -5944,11 +6118,11 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="62">
         <f>SUM(E3:E81)</f>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -5970,13 +6144,22 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VALUE(LEFT(D4,2))*60+VALUE(RIGHT(D4,2))</f>
+        <v>60</v>
+      </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F47" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -6001,17 +6184,26 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="60">
+        <v>43283</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VALUE(LEFT(D5,2))*60+VALUE(RIGHT(D5,2))</f>
+        <v>120</v>
+      </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="61">
         <f>G3/60</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -6034,8 +6226,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -6064,7 +6256,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -6093,7 +6285,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -6116,7 +6308,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -6139,7 +6331,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -6698,25 +6890,25 @@
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O34" s="8"/>
@@ -6736,22 +6928,22 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6769,27 +6961,27 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="19">
+      <c r="I36" s="17">
         <f>COUNT(A3:A50)</f>
         <v>45</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="17">
         <f>SUM(A3:A50)</f>
         <v>1035</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="17">
         <f>SUM(A3:A50^2)</f>
         <v>1156</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="21">
         <f>SUM(F3:F38)</f>
         <v>1</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="21">
         <f>L36^2</f>
         <v>1</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="17">
         <f>J36*L36</f>
         <v>1035</v>
       </c>
@@ -6807,13 +6999,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
@@ -6828,18 +7020,18 @@
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="3">
         <f>(I36*N36-J36*L36)/(I36*K36-(J36)^2)</f>
         <v>-4.4681884409907724E-2</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -6853,10 +7045,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <f>((L36)*(K36)-(J36)*(N36)) / ((I36)*(K36)-(J36^2))</f>
         <v>1.0499055636500998</v>
       </c>
@@ -6873,7 +7065,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6960,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="60"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11">
@@ -6980,7 +7172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -6996,69 +7188,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="G1" s="61" t="s">
-        <v>216</v>
+      <c r="A1" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="G1" s="59" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="68" t="s">
-        <v>217</v>
+      <c r="G2" s="65" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>219</v>
+      <c r="B5" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>216</v>
       </c>
       <c r="I5" s="14">
         <v>0</v>
@@ -7066,47 +7258,47 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>229</v>
+        <v>209</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="61" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7130,347 +7322,347 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="78"/>
-    <col min="2" max="2" width="84.5703125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="78"/>
-    <col min="5" max="5" width="18.5703125" style="78" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="78"/>
-    <col min="8" max="8" width="23" style="78"/>
-    <col min="9" max="9" width="22.5703125" style="78" customWidth="1"/>
-    <col min="10" max="10" width="64" style="78"/>
-    <col min="11" max="11" width="17.7109375" style="78"/>
-    <col min="12" max="1025" width="8.5703125" style="78"/>
-    <col min="1026" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="28.85546875" style="75"/>
+    <col min="2" max="2" width="84.5703125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="75"/>
+    <col min="5" max="5" width="18.5703125" style="75" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="75"/>
+    <col min="8" max="8" width="23" style="75"/>
+    <col min="9" max="9" width="22.5703125" style="75" customWidth="1"/>
+    <col min="10" max="10" width="64" style="75"/>
+    <col min="11" max="11" width="17.7109375" style="75"/>
+    <col min="12" max="1025" width="8.5703125" style="75"/>
+    <col min="1026" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>158</v>
+      <c r="B2" s="72" t="s">
+        <v>156</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>241</v>
+      <c r="J2" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>139</v>
+      <c r="J3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="81"/>
-      <c r="J5" s="84"/>
+      <c r="H5" s="78"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="75" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="78" t="s">
+      <c r="C18" s="75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="78" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="75" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="78" t="s">
+      <c r="C22" s="75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="75" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="85" t="s">
+      <c r="C23" s="75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="75" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="78" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>175</v>
-      </c>
-    </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="85" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="C32" s="61" t="s">
         <v>211</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7520,81 +7712,81 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="31"/>
+      <c r="F1" s="29"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>43014</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="23"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="31"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="34" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7602,167 +7794,167 @@
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="37"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="35"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="35"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="35"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="31"/>
+      <c r="F12" s="29"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="31"/>
+      <c r="F13" s="29"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="31"/>
+      <c r="F14" s="29"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="31"/>
+      <c r="F15" s="29"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="31"/>
+      <c r="F16" s="29"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="31"/>
+      <c r="F17" s="29"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="31"/>
+      <c r="F18" s="29"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="31"/>
+      <c r="F19" s="29"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="31"/>
+      <c r="F20" s="29"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="31"/>
+      <c r="F21" s="29"/>
       <c r="H21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="31"/>
+      <c r="F22" s="29"/>
       <c r="H22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="31"/>
+      <c r="F23" s="29"/>
       <c r="H23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="31"/>
+      <c r="F24" s="29"/>
       <c r="H24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="31"/>
-      <c r="H25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="H25" s="36"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="31"/>
-      <c r="H26" s="38"/>
-      <c r="J26" s="39"/>
+      <c r="F26" s="29"/>
+      <c r="H26" s="36"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="31"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="31"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="31"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="31"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="31"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="31"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="31"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="31"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="31"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="31"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="31"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="31"/>
+      <c r="F38" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7798,39 +7990,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7841,24 +8033,24 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="48" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7869,72 +8061,72 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="47"/>
+      <c r="E7" s="45"/>
       <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="47"/>
+      <c r="E8" s="45"/>
       <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="52" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="47"/>
+      <c r="E9" s="45"/>
       <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="46" t="s">
         <v>70</v>
       </c>
       <c r="J9" t="s">
@@ -7986,7 +8178,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7994,24 +8186,24 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8023,14 +8215,14 @@
       <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8039,14 +8231,14 @@
       <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="48"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8058,10 +8250,10 @@
       <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -8074,7 +8266,7 @@
         <f>REPT("&gt;", 33)</f>
         <v>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8085,10 +8277,10 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8099,7 +8291,7 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D9" t="s">
@@ -8121,10 +8313,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8132,7 +8324,7 @@
     <col min="1" max="1" width="20.42578125"/>
     <col min="2" max="2" width="36.28515625"/>
     <col min="3" max="3" width="35.85546875"/>
-    <col min="4" max="4" width="43.28515625"/>
+    <col min="4" max="4" width="147.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5703125"/>
     <col min="7" max="7" width="25.85546875"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -8140,7 +8332,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -8148,296 +8340,328 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C4" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="48"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="46"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>198</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C11" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
         <v>200</v>
       </c>
-      <c r="H9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="40" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="C22" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="40" t="s">
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C25" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C27" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    </row>
+    <row r="29" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2" display="Pushing to a remote"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
-    <hyperlink ref="D19" r:id="rId5"/>
-    <hyperlink ref="D21" r:id="rId6"/>
-    <hyperlink ref="D22" r:id="rId7"/>
-    <hyperlink ref="D23" r:id="rId8"/>
-    <hyperlink ref="D24" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId1" display="Pushing to a remote"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
+    <hyperlink ref="D24" r:id="rId4"/>
+    <hyperlink ref="D25" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId9"/>
   <drawing r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>
@@ -8461,7 +8685,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -8469,64 +8693,64 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
+      <c r="D5" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="48"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="47"/>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="285">
   <si>
     <t>Day</t>
   </si>
@@ -1262,9 +1262,6 @@
   </si>
   <si>
     <t>human - &gt; characteristics</t>
-  </si>
-  <si>
-    <t>HTML - Cascading Style Sheets</t>
   </si>
   <si>
     <t>Content</t>
@@ -1655,12 +1652,296 @@
   <si>
     <t>27/1/18</t>
   </si>
+  <si>
+    <t>Commits</t>
+  </si>
+  <si>
+    <t>git log origin/master..HEAD</t>
+  </si>
+  <si>
+    <t>view the local commits made</t>
+  </si>
+  <si>
+    <t>git diff origin/master..HEAD</t>
+  </si>
+  <si>
+    <t>view the difference between local and remote</t>
+  </si>
+  <si>
+    <r>
+      <t>margin-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>margin-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1140px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>context element</t>
+  </si>
+  <si>
+    <t>(browser,screen..)</t>
+  </si>
+  <si>
+    <t>adjusted automatically according to the container width from the left &amp; the context element</t>
+  </si>
+  <si>
+    <t>adjusted automatically according to the container width from the right &amp; the context element</t>
+  </si>
+  <si>
+    <t>floatL: left/right;</t>
+  </si>
+  <si>
+    <t>Make an element float in the assigned location</t>
+  </si>
+  <si>
+    <r>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Do not allow floating elements on the left or the right side of a specified element
+can be a &lt;div&gt; &lt;p&gt; …</t>
+  </si>
+  <si>
+    <r>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+display: inline;
+display: block;
+display: inline-block;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The display property specifies the display behavior of an element.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Every element on a web page is a rectangular box. The CSS display property determines how that rectangular box behaves.</t>
+    </r>
+  </si>
+  <si>
+    <t>a:after {
+    content: "(" attr(href) ")";
+}</t>
+  </si>
+  <si>
+    <t>The content property is used to insert generated content.
+Will display the href attribute of every thing after the context of a href.
+Or for that matter every content after every element.</t>
+  </si>
+  <si>
+    <t>Margin Box</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Top -&gt; right -&gt; bottom -&gt; left</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Order Clock wise</t>
+  </si>
+  <si>
+    <t>margin: top right bottom left</t>
+  </si>
+  <si>
+    <t>border &lt;width size&gt; &lt;type&gt; &lt;color&gt;
+size : px
+type : solid
+color: #000000-#ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the border </t>
+  </si>
+  <si>
+    <t>CSS Selectors LINK</t>
+  </si>
+  <si>
+    <t>CSS - Cascading Style Sheets</t>
+  </si>
+  <si>
+    <t>CSS Selectors can select all / part of the selection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1994,8 +2275,57 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000CD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2386,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2080,13 +2428,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2261,9 +2635,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2321,8 +2692,48 @@
     <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2451,7 +2862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2537,11 +2947,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80602624"/>
-        <c:axId val="68579264"/>
+        <c:axId val="97117696"/>
+        <c:axId val="53768128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80602624"/>
+        <c:axId val="97117696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68579264"/>
+        <c:crossAx val="53768128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2997,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68579264"/>
+        <c:axId val="53768128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +3045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80602624"/>
+        <c:crossAx val="97117696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2650,7 +3060,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2722,7 +3131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2795,7 +3203,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2970,11 +3377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68580992"/>
-        <c:axId val="68581568"/>
+        <c:axId val="53769856"/>
+        <c:axId val="53770432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68580992"/>
+        <c:axId val="53769856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,12 +3419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68581568"/>
+        <c:crossAx val="53770432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68581568"/>
+        <c:axId val="53770432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +3472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68580992"/>
+        <c:crossAx val="53769856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3954,15 +4361,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3986,7 +4393,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="1162050"/>
+          <a:off x="10944225" y="1209675"/>
           <a:ext cx="6105525" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4008,16 +4415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4041,7 +4448,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7962900" y="3667125"/>
+          <a:off x="11820525" y="2905125"/>
           <a:ext cx="3352800" cy="4667250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6033,7 +6440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6104,13 +6511,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="E3" s="10">
         <f>VALUE(LEFT(D3,2))*60+VALUE(RIGHT(D3,2))</f>
@@ -6145,13 +6552,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="10">
         <f>VALUE(LEFT(D4,2))*60+VALUE(RIGHT(D4,2))</f>
@@ -6185,13 +6592,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="60">
         <v>43283</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="10">
         <f>VALUE(LEFT(D5,2))*60+VALUE(RIGHT(D5,2))</f>
@@ -7170,145 +7577,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="A1" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="G1" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="G3" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="67" t="s">
+      <c r="I3" s="67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="G4" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" s="68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>217</v>
+      <c r="H4" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>216</v>
+      <c r="B5" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="G5" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="66" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="96" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="70" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C15" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="C11" t="s">
-        <v>231</v>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7322,18 +7854,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="75"/>
-    <col min="2" max="2" width="84.5703125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="75"/>
-    <col min="5" max="5" width="18.5703125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="75"/>
-    <col min="8" max="8" width="23" style="75"/>
-    <col min="9" max="9" width="22.5703125" style="75" customWidth="1"/>
-    <col min="10" max="10" width="64" style="75"/>
-    <col min="11" max="11" width="17.7109375" style="75"/>
-    <col min="12" max="1025" width="8.5703125" style="75"/>
+    <col min="1" max="1" width="28.85546875" style="74"/>
+    <col min="2" max="2" width="84.5703125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="74"/>
+    <col min="5" max="5" width="18.5703125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="74"/>
+    <col min="8" max="8" width="23" style="74"/>
+    <col min="9" max="9" width="22.5703125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="64" style="74"/>
+    <col min="11" max="11" width="17.7109375" style="74"/>
+    <col min="12" max="1025" width="8.5703125" style="74"/>
     <col min="1026" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
@@ -7342,13 +7874,13 @@
       <c r="B1" s="61"/>
       <c r="C1" s="64"/>
       <c r="D1" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
       <c r="G1" s="61"/>
-      <c r="H1" s="72" t="s">
-        <v>233</v>
+      <c r="H1" s="71" t="s">
+        <v>232</v>
       </c>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
@@ -7358,7 +7890,7 @@
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="3"/>
@@ -7368,25 +7900,25 @@
         <v>189</v>
       </c>
       <c r="G2" s="61"/>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="72" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -7398,29 +7930,29 @@
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="I3" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="61"/>
@@ -7428,39 +7960,39 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="79"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="80" t="s">
+      <c r="B5" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="78"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="77"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="61"/>
@@ -7469,200 +8001,200 @@
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="74" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>102</v>
       </c>
       <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="74" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="74" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="74" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="74" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="74" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="74" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="74" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="74" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="83" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="82" t="s">
-        <v>212</v>
+      <c r="B30" s="81" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8848,7 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,7 +8859,7 @@
     <col min="4" max="4" width="147.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5703125"/>
     <col min="7" max="7" width="25.85546875"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -8355,7 +8887,7 @@
       <c r="E3" s="45"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -8366,14 +8898,14 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>244</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>243</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="47"/>
@@ -8384,10 +8916,10 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="89" t="s">
-        <v>246</v>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="88" t="s">
+        <v>245</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="47"/>
@@ -8430,10 +8962,10 @@
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8444,10 +8976,10 @@
         <v>115</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8458,10 +8990,10 @@
         <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8472,10 +9004,10 @@
         <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" t="s">
         <v>200</v>
-      </c>
-      <c r="H11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8486,10 +9018,10 @@
         <v>121</v>
       </c>
       <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
         <v>203</v>
-      </c>
-      <c r="H12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8499,27 +9031,36 @@
       <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>243</v>
+      <c r="D13" s="85" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="85" t="s">
+      <c r="C15" t="s">
         <v>241</v>
       </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>247</v>
+      <c r="D15" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8528,6 +9069,12 @@
       </c>
       <c r="C16" s="38" t="s">
         <v>124</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="286">
   <si>
     <t>Day</t>
   </si>
@@ -1782,38 +1782,6 @@
     <t>Make an element float in the assigned location</t>
   </si>
   <si>
-    <r>
-      <t>clear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000CD"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> both</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>Do not allow floating elements on the left or the right side of a specified element
 can be a &lt;div&gt; &lt;p&gt; …</t>
   </si>
@@ -1935,6 +1903,42 @@
   </si>
   <si>
     <t>CSS Selectors can select all / part of the selection</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <r>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; inside a class
+https://css-tricks.com/snippets/css/clear-fix/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2699,12 +2703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2734,6 +2732,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2947,11 +2951,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97117696"/>
-        <c:axId val="53768128"/>
+        <c:axId val="89773568"/>
+        <c:axId val="67137472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97117696"/>
+        <c:axId val="89773568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53768128"/>
+        <c:crossAx val="67137472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3001,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53768128"/>
+        <c:axId val="67137472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97117696"/>
+        <c:crossAx val="89773568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3210,7 +3214,7 @@
             <c:strRef>
               <c:f>'Duration Meter'!$C$3:$C$179</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24/1/18</c:v>
                 </c:pt>
@@ -3219,6 +3223,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7/2/2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11/2/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3230,16 +3237,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3377,11 +3384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53769856"/>
-        <c:axId val="53770432"/>
+        <c:axId val="67139200"/>
+        <c:axId val="67139776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53769856"/>
+        <c:axId val="67139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,12 +3426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53770432"/>
+        <c:crossAx val="67139776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53770432"/>
+        <c:axId val="67139776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53769856"/>
+        <c:crossAx val="67139200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4423,8 +4430,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3352800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6441,7 +6448,7 @@
   <dimension ref="A1:AMK47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6525,11 +6532,11 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="62">
         <f>SUM(E3:E81)</f>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -6566,7 +6573,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F47" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -6606,11 +6613,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="61">
         <f>G3/60</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -6632,13 +6639,22 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="60">
+        <v>43406</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="10">
+        <f>VALUE(LEFT(D6,2))*60+VALUE(RIGHT(D6,2))</f>
+        <v>180</v>
+      </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -7579,8 +7595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7597,33 +7613,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="G1" s="59" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="95" t="s">
         <v>282</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>281</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" s="66" t="s">
@@ -7637,10 +7653,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="103" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="22"/>
@@ -7655,7 +7671,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="94" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="70"/>
@@ -7694,28 +7710,28 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>226</v>
       </c>
       <c r="C9" s="70"/>
-      <c r="D9" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="D9" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>227</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+        <v>278</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
@@ -7725,13 +7741,13 @@
         <v>228</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7740,40 +7756,40 @@
         <v>257</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="102" t="s">
         <v>260</v>
       </c>
       <c r="C13" s="70" t="s">
         <v>255</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="102" t="s">
         <v>261</v>
       </c>
       <c r="C14" s="70" t="s">
@@ -7796,36 +7812,36 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="98" t="s">
+    <row r="17" spans="2:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B17" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="99" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="100" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="20" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="103" t="s">
+      <c r="B20" s="100" t="s">
         <v>280</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="287">
   <si>
     <t>Day</t>
   </si>
@@ -1939,6 +1939,9 @@
       <t>; inside a class
 https://css-tricks.com/snippets/css/clear-fix/</t>
     </r>
+  </si>
+  <si>
+    <t>Basic Colors</t>
   </si>
 </sst>
 </file>
@@ -2951,11 +2954,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89773568"/>
-        <c:axId val="67137472"/>
+        <c:axId val="74796544"/>
+        <c:axId val="50638784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89773568"/>
+        <c:axId val="74796544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67137472"/>
+        <c:crossAx val="50638784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,7 +3004,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67137472"/>
+        <c:axId val="50638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89773568"/>
+        <c:crossAx val="74796544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3384,11 +3387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67139200"/>
-        <c:axId val="67139776"/>
+        <c:axId val="50640512"/>
+        <c:axId val="50641088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67139200"/>
+        <c:axId val="50640512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,12 +3429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67139776"/>
+        <c:crossAx val="50641088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67139776"/>
+        <c:axId val="50641088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67139200"/>
+        <c:crossAx val="50640512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4457,6 +4460,61 @@
         <a:xfrm>
           <a:off x="11820525" y="2905125"/>
           <a:ext cx="3352800" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9896475" y="8258175"/>
+          <a:ext cx="7267575" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7593,10 +7651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7812,7 +7870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>264</v>
       </c>
@@ -7820,7 +7878,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="97" t="s">
         <v>266</v>
       </c>
@@ -7828,7 +7886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="s">
         <v>268</v>
       </c>
@@ -7836,12 +7894,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="100" t="s">
         <v>280</v>
       </c>
       <c r="C20" s="101" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="86" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="309">
   <si>
     <t>Day</t>
   </si>
@@ -1787,41 +1787,6 @@
   </si>
   <si>
     <r>
-      <t>display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000CD"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;
-display: inline;
-display: block;
-display: inline-block;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The display property specifies the display behavior of an element.
 </t>
     </r>
@@ -1943,12 +1908,198 @@
   <si>
     <t>Basic Colors</t>
   </si>
+  <si>
+    <t>Decide the wieght (boldness) of the font</t>
+  </si>
+  <si>
+    <t>font-wieght: (100-900) , bold, lighter, bolder</t>
+  </si>
+  <si>
+    <t>29/2/2018</t>
+  </si>
+  <si>
+    <t>5/3/2018</t>
+  </si>
+  <si>
+    <t>ViewPort - The viewport is the user's visible 
+area of a web page.</t>
+  </si>
+  <si>
+    <t>Measurement units</t>
+  </si>
+  <si>
+    <t>height: 100vh;</t>
+  </si>
+  <si>
+    <t>vw - 1 unit reflects 1/100th the width of the viewport</t>
+  </si>
+  <si>
+    <t>vh - 1 unit reflects 1/100th the height of the viewport</t>
+  </si>
+  <si>
+    <t>height: 100vw;</t>
+  </si>
+  <si>
+    <t>Moving Objects</t>
+  </si>
+  <si>
+    <t>top:
+bottom:
+right:
+left:</t>
+  </si>
+  <si>
+    <t>Change the position of the box</t>
+  </si>
+  <si>
+    <t>transform: translate(-50%,-50%)</t>
+  </si>
+  <si>
+    <t>translate(x,y) coordinates</t>
+  </si>
+  <si>
+    <t>Gradiantly change the image colors
+To create a linear gradient you must define at least two color stops. 
+Color stops are the colors you want to render smooth transitions among. 
+You can also set a starting point and a direction (or an angle) along with the gradient effect.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">background: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear-gradient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color-stop1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color-stop2, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Manipulating Text</t>
+  </si>
+  <si>
+    <t>text-transform:</t>
+  </si>
+  <si>
+    <t>letter-spacing:</t>
+  </si>
+  <si>
+    <t>word-spacing:</t>
+  </si>
+  <si>
+    <r>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+display: inline; (inline - columns )
+display: block; ( line breaks - rows )
+display: inline-block; (inline block - doesn’t line break + has padding and margin )</t>
+    </r>
+  </si>
+  <si>
+    <t>5/3/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2331,8 +2482,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2411,8 +2576,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2461,13 +2638,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2742,6 +2928,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2869,6 +3069,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2912,13 +3113,15 @@
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Duration Meter'!$I$3:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTML CSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2927,7 +3130,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2954,11 +3157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74796544"/>
-        <c:axId val="50638784"/>
+        <c:axId val="82245120"/>
+        <c:axId val="48918464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74796544"/>
+        <c:axId val="82245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +3199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50638784"/>
+        <c:crossAx val="48918464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3004,7 +3207,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50638784"/>
+        <c:axId val="48918464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74796544"/>
+        <c:crossAx val="82245120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3067,6 +3270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3138,6 +3342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3210,6 +3415,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3217,7 +3423,7 @@
             <c:strRef>
               <c:f>'Duration Meter'!$C$3:$C$179</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>24/1/18</c:v>
                 </c:pt>
@@ -3230,6 +3436,15 @@
                 <c:pt idx="3">
                   <c:v>11/2/2018</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>29/2/2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5/3/2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5/3/2019</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
@@ -3240,25 +3455,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.375</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3387,11 +3602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50640512"/>
-        <c:axId val="50641088"/>
+        <c:axId val="48920192"/>
+        <c:axId val="48920768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50640512"/>
+        <c:axId val="48920192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,12 +3644,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50641088"/>
+        <c:crossAx val="48920768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50641088"/>
+        <c:axId val="48920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,7 +3697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50640512"/>
+        <c:crossAx val="48920192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4434,7 +4649,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>3352800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,7 +4703,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6505,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,21 +6805,23 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G3" s="62">
         <f>SUM(E3:E81)</f>
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="J3" s="14">
         <f>COUNTIF($B$3:$B$500,I3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="15" t="e">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15">
         <f>(J3/SUM($J$3:$J$7))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6631,7 +6848,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F47" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>0.125</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -6642,9 +6859,9 @@
         <f>COUNTIF($B$3:$B$500,I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="e">
+      <c r="K4" s="15">
         <f>(J4/SUM($J$3:$J$7))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6671,11 +6888,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G5" s="61">
         <f>G3/60</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -6683,9 +6900,9 @@
         <f>COUNTIF($B$3:$B$500,I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="e">
+      <c r="K5" s="15">
         <f>(J5/SUM($J$3:$J$7))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -6704,7 +6921,7 @@
         <v>43406</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="10">
         <f>VALUE(LEFT(D6,2))*60+VALUE(RIGHT(D6,2))</f>
@@ -6712,7 +6929,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6721,9 +6938,9 @@
         <f>COUNTIF($B$3:$B$500,I6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="e">
+      <c r="K6" s="15">
         <f>(J6/SUM($J$3:$J$7))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -6735,13 +6952,22 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E9" si="1">VALUE(LEFT(D7,2))*60+VALUE(RIGHT(D7,2))</f>
+        <v>120</v>
+      </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -6750,9 +6976,9 @@
         <f>COUNTIF($B$3:$B$500,I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="e">
+      <c r="K7" s="15">
         <f>(J7/SUM($J$3:$J$7))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -6764,13 +6990,22 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -6787,13 +7022,22 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -7456,15 +7700,15 @@
       </c>
       <c r="L36" s="21">
         <f>SUM(F3:F38)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="M36" s="21">
         <f>L36^2</f>
-        <v>1</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="N36" s="17">
         <f>J36*L36</f>
-        <v>1035</v>
+        <v>1034.9999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -7506,7 +7750,7 @@
       </c>
       <c r="I38" s="3">
         <f>(I36*N36-J36*L36)/(I36*K36-(J36)^2)</f>
-        <v>-4.4681884409907724E-2</v>
+        <v>-4.4681884409907717E-2</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -7531,7 +7775,7 @@
       </c>
       <c r="I39" s="18">
         <f>((L36)*(K36)-(J36)*(N36)) / ((I36)*(K36)-(J36^2))</f>
-        <v>1.0499055636500998</v>
+        <v>1.0499055636500996</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -7651,17 +7895,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -7683,7 +7927,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>213</v>
@@ -7694,10 +7938,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" s="66" t="s">
@@ -7773,7 +8017,7 @@
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="105"/>
       <c r="F9" s="105"/>
@@ -7783,10 +8027,10 @@
         <v>227</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="105"/>
       <c r="F10" s="105"/>
@@ -7799,13 +8043,13 @@
         <v>228</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7814,13 +8058,13 @@
         <v>257</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7834,13 +8078,13 @@
         <v>255</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -7875,43 +8119,125 @@
         <v>264</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B18" s="97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>295</v>
+      </c>
       <c r="G24" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="109" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS" sheetId="19" r:id="rId2"/>
-    <sheet name="HTML" sheetId="13" r:id="rId3"/>
-    <sheet name="HELLOWORLDgit" sheetId="9" r:id="rId4"/>
-    <sheet name="GeneralTools" sheetId="10" r:id="rId5"/>
-    <sheet name="Linux Related" sheetId="11" r:id="rId6"/>
-    <sheet name="git vcs" sheetId="14" r:id="rId7"/>
-    <sheet name="npm" sheetId="17" r:id="rId8"/>
+    <sheet name="CSS Advanced" sheetId="21" r:id="rId2"/>
+    <sheet name="CSS" sheetId="19" r:id="rId3"/>
+    <sheet name="HTML" sheetId="13" r:id="rId4"/>
+    <sheet name="WebDesign Helpful Links" sheetId="20" r:id="rId5"/>
+    <sheet name="git vcs" sheetId="14" r:id="rId6"/>
+    <sheet name="npm" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="GNUPG">GeneralTools!$H$7</definedName>
+    <definedName name="GNUPG">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
@@ -67,6 +66,40 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>EpicApex</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EpicApex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+first value applies to top-left and bottom-right corners, and the second value applies to top-right and bottom-left corners</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author/>
   </authors>
   <commentList>
@@ -100,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -176,172 +209,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="J4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">EpicApex:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>It is a machine level package manager that is built on top of nuget command line and the nuget infrastructure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">EpicApex:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Uses *.XML files
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">EpicApex:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Installing in a different path NPM --prefix flag and the --global* flag.
-pje@friendbear:~/foo $ npm install bower -g --prefix ./vendor/node_modules
-bower@0.7.0 /Users/pje/foo/vendor/node_modules/bower
-*Even though this is a "global" installation, installed bins won't be accessible through the command line unless ~/foo/vendor/node_modules exists in PATH.
-TL;R
-Every configurable attribute of npm can be set in any of six different places. In order of priority:
-Command-Line Flags:  --prefix ./vendor/node_modules
-Environment Variables: NPM_CONFIG_PREFIX=./vendor/node_modules
-User Config File:  $HOME/.npmrc or userconfig param
-Global Config File:  $PREFIX/etc/npmrc or userconfig param
-Built-In Config File:  path/to/npm/itself/npmrc
-Default Config: node_modules/npmconf/config-defs.js
-By default, locally-installed packages go into ./node_modules. global ones go into the prefix config variable (/usr/local by default).
-You can run npm config list to see your current config and npm config edit to change it.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">EpicApex:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>https://prnt.sc/fn690z
-git config</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">EpicApex:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ttps://www.computerhope.com/unix.htm</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>EpicApex</author>
@@ -407,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="279">
   <si>
     <t>Day</t>
   </si>
@@ -510,278 +378,19 @@
     <t xml:space="preserve">Equation </t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Progress Information</t>
   </si>
   <si>
-    <t>Related Vocabulary</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Solution - Link</t>
   </si>
   <si>
-    <t>Instrument name</t>
-  </si>
-  <si>
-    <t>KeyBoard Hotkey's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax </t>
-  </si>
-  <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>Definition - Functionality</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NPM</t>
-  </si>
-  <si>
-    <t>Node Package Manager</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NPM consists of code packages  - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">share the code + reuse the code
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Each package is a building block of javascript / typescript solution to a specific problem.
-Each building block can be exported and imported from the NPM , for othe developers to use.
-Each Web APP holds 'n'  intraconnected building blocks (Packages) &lt;- 'n' is defined as n &gt; 0 , n ∈ N
-</t>
-    </r>
-  </si>
-  <si>
-    <t>GITHUB website
-www.github.com</t>
-  </si>
-  <si>
-    <t>Ant</t>
-  </si>
-  <si>
-    <t>Apache Ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Ant is a software tool for automating software build processes,
-and is implemented using the Java language, requires the Java platform, and is best suited to building Java projects.
-</t>
-  </si>
-  <si>
-    <t>Create and use a repository
-Start and manage a new branch
-Make changes to a file and push them to GitHub as commits
-Open and merge a pull request</t>
-  </si>
-  <si>
-    <t>https://guides.github.com/activities/hello-world/</t>
-  </si>
-  <si>
-    <t>infrastructure</t>
-  </si>
-  <si>
-    <t>Command list</t>
-  </si>
-  <si>
-    <t>7zip</t>
-  </si>
-  <si>
-    <t>Unpack archives</t>
-  </si>
-  <si>
     <t>Commands</t>
   </si>
   <si>
-    <t>Chocolatey</t>
-  </si>
-  <si>
-    <t>chocolatey</t>
-  </si>
-  <si>
-    <t>NuGet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF202F3C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chocolatey is a package manager for Windows.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202F3C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> It was designed to be a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF202F3C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>decentralized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202F3C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t> framework for quickly installing applications and tools that you need.
- It is built on the NuGet infrastructure currently using PowerShell as its focus for delivering packages from the distros to your door, err computer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Choco Commands</t>
-  </si>
-  <si>
-    <t>jUnit</t>
-  </si>
-  <si>
-    <t>Unit Testing</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Panctuation marks 
-programming</t>
-  </si>
-  <si>
-    <t>List with description</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>GnuPG</t>
-  </si>
-  <si>
-    <t>GnuPG allows to encrypt and sign your data and communication,
-features a versatile key management system as well as access modules for all kinds of public key directories.</t>
-  </si>
-  <si>
-    <t>GIT BASH</t>
-  </si>
-  <si>
-    <t>GitHub command list</t>
-  </si>
-  <si>
-    <t>GIT CLI</t>
-  </si>
-  <si>
-    <t>GITHUB</t>
-  </si>
-  <si>
-    <t>git-cheat-sheet</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
     <t>Command syntax</t>
-  </si>
-  <si>
-    <t>Root Permission</t>
-  </si>
-  <si>
-    <t>execute vscode as root user</t>
-  </si>
-  <si>
-    <t>sudo code . --user-data-dir='.'</t>
-  </si>
-  <si>
-    <t>change owner Recursively</t>
-  </si>
-  <si>
-    <t>sudo chown -R group:user directory</t>
-  </si>
-  <si>
-    <t>Web app control</t>
-  </si>
-  <si>
-    <t>web app port kill</t>
-  </si>
-  <si>
-    <t>sudo lsof -t -I tcp:4200 | xargs kill -9</t>
-  </si>
-  <si>
-    <t>Root access for a user</t>
-  </si>
-  <si>
-    <t>Disable/Enable Root access for a user</t>
-  </si>
-  <si>
-    <t>Viewing groups:users</t>
-  </si>
-  <si>
-    <t>getent group userName</t>
-  </si>
-  <si>
-    <t>Groups/users</t>
-  </si>
-  <si>
-    <t>Terminal (dpkg)</t>
-  </si>
-  <si>
-    <t>view all list of installed packages</t>
-  </si>
-  <si>
-    <t>sudo dpkg --get-selections</t>
-  </si>
-  <si>
-    <t>LINK</t>
   </si>
   <si>
     <t>The HTML &lt;label&gt; element represents a caption for an item in a user interface</t>
@@ -1904,9 +1513,6 @@
       <t>; inside a class
 https://css-tricks.com/snippets/css/clear-fix/</t>
     </r>
-  </si>
-  <si>
-    <t>Basic Colors</t>
   </si>
   <si>
     <t>Decide the wieght (boldness) of the font</t>
@@ -2094,12 +1700,195 @@
   <si>
     <t>5/3/2019</t>
   </si>
+  <si>
+    <t>text-transform: none|capitalize|uppercase|lowercase|initial|inherit;</t>
+  </si>
+  <si>
+    <t>CSS Pseudo-classes</t>
+  </si>
+  <si>
+    <t>Basic Colors - www.flatuicolors.com</t>
+  </si>
+  <si>
+    <t>/* unvisited link */
+a:link {
+    color: red;
+}
+/* visited link */
+a:visited {
+    color: green;
+}
+/* mouse over link */
+a:hover {
+    color: hotpink;
+}
+/* selected link */
+a:active {
+    color: blue;
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A pseudo-class is used to define a special state of an element.
+In-order of being effective , the order of the pseudo-class should remain:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a:link
+2) a:visited
+3) a:hover
+4) a:active</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>0to255 shades of colors</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>flatuicolors</t>
+  </si>
+  <si>
+    <t>Multiple color palettes to choose from ( hex value )</t>
+  </si>
+  <si>
+    <t>Copy hex color value and retrieve other shades of the same</t>
+  </si>
+  <si>
+    <t>text-decoration</t>
+  </si>
+  <si>
+    <t>set underline // overline // line-through // underline overline //</t>
+  </si>
+  <si>
+    <t>CSS transitions allows you to change property values smoothly (from one value to another), over a given duration.</t>
+  </si>
+  <si>
+    <t>transition: background-color 0.2s;</t>
+  </si>
+  <si>
+    <t>Only for chrome and safaru - application based of webkit or Blink</t>
+  </si>
+  <si>
+    <t>-webkit-transition-duration: 1s;</t>
+  </si>
+  <si>
+    <t>set the duration of the transition</t>
+  </si>
+  <si>
+    <r>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> param1 duration1, param2 duration2, param3…</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS Advanced</t>
+  </si>
+  <si>
+    <r>
+      <t>The CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC143C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> property defines the radius of an element's corners.</t>
+    </r>
+  </si>
+  <si>
+    <t>border-radius: size(top-left+bottom-right conrers)px size(top-right+bottom-left);</t>
+  </si>
+  <si>
+    <t>A set of navigation links:</t>
+  </si>
+  <si>
+    <t>&lt;nav&gt;
+  &lt;a href="/html/"&gt;HTML&lt;/a&gt; |
+  &lt;a href="/css/"&gt;CSS&lt;/a&gt; |
+  &lt;a href="/js/"&gt;JavaScript&lt;/a&gt; |
+  &lt;a href="/jquery/"&gt;jQuery&lt;/a&gt;
+&lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/ref_standardattributes.asp</t>
+  </si>
+  <si>
+    <t>HTML GLOBAL ATTRIBUTS ( class, id, data-*)</t>
+  </si>
+  <si>
+    <t>12/3/2020</t>
+  </si>
+  <si>
+    <t>0430</t>
+  </si>
+  <si>
+    <t>transition: param1 duration1,param2 …</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2229,35 +2018,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -2267,46 +2027,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF242729"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4E443C"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF202F3C"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202F3C"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Courier New"/>
-      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2496,6 +2221,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDC143C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2508,12 +2259,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
-        <bgColor rgb="FF548DD4"/>
       </patternFill>
     </fill>
     <fill>
@@ -2588,8 +2333,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2647,13 +2398,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2700,9 +2531,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,12 +2549,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2734,56 +2556,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2791,29 +2575,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,13 +2600,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2837,10 +2614,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2858,7 +2635,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2867,43 +2644,43 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2915,33 +2692,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3157,11 +2999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82245120"/>
-        <c:axId val="48918464"/>
+        <c:axId val="117822976"/>
+        <c:axId val="64253312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82245120"/>
+        <c:axId val="117822976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48918464"/>
+        <c:crossAx val="64253312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3207,7 +3049,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48918464"/>
+        <c:axId val="64253312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82245120"/>
+        <c:crossAx val="117822976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3423,7 +3265,7 @@
             <c:strRef>
               <c:f>'Duration Meter'!$C$3:$C$179</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>24/1/18</c:v>
                 </c:pt>
@@ -3439,11 +3281,14 @@
                 <c:pt idx="4">
                   <c:v>29/2/2018</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5/3/2018</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5/3/2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12/3/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3455,31 +3300,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>5.4054054054054057E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.16216216216216217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.24324324324324326</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3602,11 +3447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48920192"/>
-        <c:axId val="48920768"/>
+        <c:axId val="64255040"/>
+        <c:axId val="64255616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48920192"/>
+        <c:axId val="64255040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,12 +3489,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48920768"/>
+        <c:crossAx val="64255616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48920768"/>
+        <c:axId val="64255616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48920192"/>
+        <c:crossAx val="64255040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4585,13 +4430,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
@@ -4640,16 +4485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3352800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4695,16 +4540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4763,8 +4608,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4811,8 +4656,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4859,8 +4704,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4907,8 +4752,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4955,8 +4800,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5003,8 +4848,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5054,8 +4899,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5105,8 +4950,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5156,7 +5001,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5199,7 +5044,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5242,7 +5087,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5279,966 +5124,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12755880" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12755880" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12755880" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12755880" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12991320" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12991320" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12991320" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12991320" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12667680" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12667680" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12667680" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12667680" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6152" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6150" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6148" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6146" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14800320" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1113840</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12486600" cy="9524160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1056960</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12429720" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7170" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6720,8 +5605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,13 +5676,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>248</v>
+        <v>134</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E3" s="10">
         <f>VALUE(LEFT(D3,2))*60+VALUE(RIGHT(D3,2))</f>
@@ -6805,19 +5690,19 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G3" s="62">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G3" s="42">
         <f>SUM(E3:E81)</f>
-        <v>840</v>
+        <v>1110</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="J3" s="14">
         <f>COUNTIF($B$3:$B$500,I3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="15">
         <f>(J3/SUM($J$3:$J$7))</f>
@@ -6834,21 +5719,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>249</v>
+        <v>134</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="E4" s="10">
         <f>VALUE(LEFT(D4,2))*60+VALUE(RIGHT(D4,2))</f>
         <v>60</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F47" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" ref="F4:F10" si="0">IFERROR(E4/$G$3,"-")</f>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -6874,13 +5759,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="60">
+        <v>134</v>
+      </c>
+      <c r="C5" s="40">
         <v>43283</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E5" s="10">
         <f>VALUE(LEFT(D5,2))*60+VALUE(RIGHT(D5,2))</f>
@@ -6888,11 +5773,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G5" s="61">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G5" s="41">
         <f>G3/60</f>
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -6915,13 +5800,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="60">
+        <v>134</v>
+      </c>
+      <c r="C6" s="40">
         <v>43406</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="E6" s="10">
         <f>VALUE(LEFT(D6,2))*60+VALUE(RIGHT(D6,2))</f>
@@ -6929,7 +5814,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6953,21 +5838,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" ref="E7:E9" si="1">VALUE(LEFT(D7,2))*60+VALUE(RIGHT(D7,2))</f>
+        <f t="shared" ref="E7" si="1">VALUE(LEFT(D7,2))*60+VALUE(RIGHT(D7,2))</f>
         <v>120</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -6990,28 +5875,11 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -7023,21 +5891,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="1"/>
+        <f>VALUE(LEFT(D9,2))*60+VALUE(RIGHT(D9,2))</f>
         <v>120</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -7054,13 +5922,22 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="10">
+        <f>VALUE(LEFT(D10,2))*60+VALUE(RIGHT(D10,2))</f>
+        <v>120</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -7077,13 +5954,22 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11" si="2">VALUE(LEFT(D11,2))*60+VALUE(RIGHT(D11,2))</f>
+        <v>270</v>
+      </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(E11/$G$3,"-")</f>
+        <v>0.24324324324324326</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -7105,7 +5991,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F12:F47" si="3">IFERROR(E12/$G$3,"-")</f>
         <v>0</v>
       </c>
       <c r="G12"/>
@@ -7128,7 +6014,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
@@ -7151,7 +6037,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
@@ -7174,7 +6060,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
@@ -7197,7 +6083,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
@@ -7220,7 +6106,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17" s="3"/>
@@ -7243,7 +6129,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
@@ -7266,7 +6152,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G19" s="3"/>
@@ -7289,7 +6175,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G20" s="3"/>
@@ -7312,7 +6198,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
@@ -7335,7 +6221,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22" s="3"/>
@@ -7358,7 +6244,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G23" s="3"/>
@@ -7381,7 +6267,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24" s="3"/>
@@ -7404,7 +6290,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="3"/>
@@ -7427,7 +6313,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="3"/>
@@ -7450,7 +6336,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="3"/>
@@ -7473,7 +6359,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
@@ -7496,7 +6382,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
@@ -7519,7 +6405,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="3"/>
@@ -7542,7 +6428,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
@@ -7565,7 +6451,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
@@ -7588,7 +6474,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
@@ -7611,29 +6497,29 @@
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>17</v>
       </c>
       <c r="O34" s="8"/>
@@ -7648,27 +6534,27 @@
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7681,34 +6567,34 @@
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <f>COUNT(A3:A50)</f>
         <v>45</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <f>SUM(A3:A50)</f>
         <v>1035</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <f>SUM(A3:A50^2)</f>
         <v>1156</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="20">
         <f>SUM(F3:F38)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="M36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="20">
         <f>L36^2</f>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="N36" s="17">
+        <v>1</v>
+      </c>
+      <c r="N36" s="16">
         <f>J36*L36</f>
-        <v>1034.9999999999998</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -7720,17 +6606,17 @@
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
@@ -7741,22 +6627,22 @@
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="3">
         <f>(I36*N36-J36*L36)/(I36*K36-(J36)^2)</f>
-        <v>-4.4681884409907717E-2</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+        <v>-4.4681884409907724E-2</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -7767,15 +6653,15 @@
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <f>((L36)*(K36)-(J36)*(N36)) / ((I36)*(K36)-(J36^2))</f>
-        <v>1.0499055636500996</v>
+        <v>1.0499055636500998</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -7787,10 +6673,10 @@
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7803,7 +6689,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7816,7 +6702,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="10"/>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7829,7 +6715,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7842,7 +6728,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7855,7 +6741,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,7 +6754,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7877,11 +6763,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="58"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7895,714 +6781,874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="G1" s="59" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="H1" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="H3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="21"/>
+      <c r="H4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="97"/>
+      <c r="H5" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="98"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="98"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="97"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="65" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="G3" s="66" t="s">
+      <c r="G13" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="67" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="97"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="97"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="97"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+    </row>
+    <row r="18" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="100"/>
+    </row>
+    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="97"/>
+    </row>
+    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="G4" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="G5" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="D20" s="101"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="C21" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="102" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="86"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="87"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="85"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="85"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="85"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="C38" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B17" s="96" t="s">
+      <c r="C39" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-    </row>
-    <row r="18" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="97" t="s">
+      <c r="D39" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="B42" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="90"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="88" t="str">
+        <f>"-webkit-"</f>
+        <v>-webkit-</v>
+      </c>
+      <c r="C46" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="99" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C47" s="85" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" t="s">
-        <v>295</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="108" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C27" s="110" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="109" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="110" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="111" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="108" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="109" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="109" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D38" r:id="rId2"/>
+    <hyperlink ref="D39" r:id="rId3"/>
+    <hyperlink ref="C46" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK32"/>
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="74"/>
-    <col min="2" max="2" width="84.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="74"/>
-    <col min="5" max="5" width="18.5703125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="74"/>
-    <col min="8" max="8" width="23" style="74"/>
-    <col min="9" max="9" width="22.5703125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="64" style="74"/>
-    <col min="11" max="11" width="17.7109375" style="74"/>
-    <col min="12" max="1025" width="8.5703125" style="74"/>
-    <col min="1026" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="28.85546875" style="54"/>
+    <col min="2" max="2" width="84.5703125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="54"/>
+    <col min="5" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="54"/>
+    <col min="8" max="8" width="23" style="54"/>
+    <col min="9" max="9" width="22.5703125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="64" style="54"/>
+    <col min="11" max="11" width="17.7109375" style="54"/>
+    <col min="12" max="1025" width="8.5703125" style="54"/>
+    <col min="1026" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>156</v>
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="72" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="61"/>
+      <c r="B4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="41"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="61"/>
+      <c r="A5" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="41"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="77"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="57"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="28"/>
+      <c r="A6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="74" t="s">
+      <c r="A7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="74" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="61"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>164</v>
+      <c r="C17" s="54" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>165</v>
+      <c r="B18" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>162</v>
+      <c r="B19" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
-        <v>168</v>
+      <c r="B21" s="61" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>171</v>
+      <c r="B22" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>172</v>
+      <c r="B23" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="81" t="s">
-        <v>169</v>
+      <c r="B24" s="61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>104</v>
+      <c r="B25" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>170</v>
+      <c r="B26" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>176</v>
+      <c r="B27" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>173</v>
+      <c r="B28" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
-        <v>211</v>
+      <c r="B29" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B30" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="104" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>210</v>
+      <c r="B32" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
@@ -8621,634 +7667,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK38"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="8"/>
-    <col min="2" max="2" width="57.5703125" style="8"/>
-    <col min="3" max="3" width="39.7109375" style="8"/>
-    <col min="4" max="4" width="18.7109375" style="8"/>
-    <col min="5" max="5" width="28.85546875" style="8"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="8" width="18.7109375" style="8"/>
-    <col min="9" max="9" width="35.28515625" style="8"/>
-    <col min="10" max="10" width="162" style="8"/>
-    <col min="11" max="1025" width="9.140625" style="8"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1" s="29"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43014</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="29"/>
-      <c r="H12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="29"/>
-      <c r="H13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="29"/>
-      <c r="H14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="29"/>
-      <c r="H15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="29"/>
-      <c r="H16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="29"/>
-      <c r="H17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="29"/>
-      <c r="H18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="29"/>
-      <c r="H19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="29"/>
-      <c r="H20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="29"/>
-      <c r="H21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="29"/>
-      <c r="H22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="29"/>
-      <c r="H23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="29"/>
-      <c r="H24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="29"/>
-      <c r="H25" s="36"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="29"/>
-      <c r="H26" s="36"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="29"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K9"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125"/>
-    <col min="2" max="2" width="20.28515625"/>
-    <col min="3" max="3" width="13.7109375"/>
-    <col min="4" max="4" width="16.42578125"/>
-    <col min="5" max="5" width="18.140625"/>
-    <col min="6" max="6" width="16.42578125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="22.7109375"/>
-    <col min="9" max="9" width="13.7109375"/>
-    <col min="10" max="10" width="63.140625"/>
-    <col min="11" max="11" width="17.5703125"/>
-    <col min="12" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="45"/>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="45"/>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="45"/>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H7" r:id="rId8"/>
-    <hyperlink ref="H8" r:id="rId9"/>
-    <hyperlink ref="H9" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K9"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="3" width="34.85546875"/>
-    <col min="4" max="4" width="35.5703125"/>
-    <col min="5" max="5" width="18.140625"/>
-    <col min="6" max="6" width="16.42578125"/>
-    <col min="7" max="7" width="11.140625"/>
-    <col min="8" max="8" width="22.7109375"/>
-    <col min="9" max="9" width="13.7109375"/>
-    <col min="10" max="10" width="63.140625"/>
-    <col min="11" max="11" width="17.5703125"/>
-    <col min="12" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="str">
-        <f>REPT("&gt;", 33)</f>
-        <v>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K29"/>
   <sheetViews>
@@ -9269,336 +7744,336 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
+      <c r="A2" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="44"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="46"/>
-      <c r="J6" s="33"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="J7" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>194</v>
+        <v>146</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>197</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>119</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>105</v>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>242</v>
+        <v>64</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>239</v>
+      <c r="B14" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>250</v>
+        <v>180</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
-        <v>240</v>
+      <c r="B15" s="64" t="s">
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>251</v>
+        <v>183</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="89" t="s">
-        <v>253</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>126</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>128</v>
+      <c r="B18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>129</v>
+      <c r="B19" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>119</v>
+      <c r="B21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>139</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="26"/>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>142</v>
+      <c r="B25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="C26" s="26"/>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>145</v>
+      <c r="B27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>149</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9619,7 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
@@ -9637,72 +8112,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
+      <c r="A2" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="44"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="45"/>
+      <c r="B5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="28"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="33"/>
+      <c r="H5" s="29"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="45"/>
-      <c r="F6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="290">
   <si>
     <t>Day</t>
   </si>
@@ -1875,13 +1875,47 @@
     <t>HTML GLOBAL ATTRIBUTS ( class, id, data-*)</t>
   </si>
   <si>
-    <t>12/3/2020</t>
-  </si>
-  <si>
     <t>0430</t>
   </si>
   <si>
     <t>transition: param1 duration1,param2 …</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>The &lt;section&gt; tag defines sections in a document, such as chapters,
+ headers, footers, or any other sections of the document.</t>
+  </si>
+  <si>
+    <t>&lt;section&gt; &lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>HTML Special commands</t>
+  </si>
+  <si>
+    <t>&amp;mdash;</t>
+  </si>
+  <si>
+    <t>"-" in the length of a capital M</t>
+  </si>
+  <si>
+    <t>The premium icon font for Ionic Framework.</t>
+  </si>
+  <si>
+    <t>ionicons</t>
+  </si>
+  <si>
+    <t>randomuser.me</t>
+  </si>
+  <si>
+    <t>A free, open-source API for generating random user data. Like Lorem Ipsum, but for people.</t>
+  </si>
+  <si>
+    <t>12/3/2019</t>
+  </si>
+  <si>
+    <t>11/3/2020</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2518,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2783,6 +2817,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2999,11 +3036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117822976"/>
-        <c:axId val="64253312"/>
+        <c:axId val="80205312"/>
+        <c:axId val="61173120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117822976"/>
+        <c:axId val="80205312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64253312"/>
+        <c:crossAx val="61173120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3049,7 +3086,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64253312"/>
+        <c:axId val="61173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117822976"/>
+        <c:crossAx val="80205312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3265,7 +3302,7 @@
             <c:strRef>
               <c:f>'Duration Meter'!$C$3:$C$179</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>24/1/18</c:v>
                 </c:pt>
@@ -3288,7 +3325,10 @@
                   <c:v>5/3/2019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12/3/2020</c:v>
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12/3/2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3300,34 +3340,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4054054054054057E-2</c:v>
+                  <c:v>4.878048780487805E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16216216216216217</c:v>
+                  <c:v>0.14634146341463414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24324324324324326</c:v>
+                  <c:v>0.21951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3447,11 +3487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64255040"/>
-        <c:axId val="64255616"/>
+        <c:axId val="61174848"/>
+        <c:axId val="61175424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64255040"/>
+        <c:axId val="61174848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,12 +3529,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64255616"/>
+        <c:crossAx val="61175424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64255616"/>
+        <c:axId val="61175424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,7 +3582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64255040"/>
+        <c:crossAx val="61174848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4607,7 +4647,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461960</xdr:colOff>
+      <xdr:colOff>131760</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
@@ -4655,7 +4695,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461960</xdr:colOff>
+      <xdr:colOff>131760</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
@@ -4704,8 +4744,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164320</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4752,8 +4792,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164320</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4800,8 +4840,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1989960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164320</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4848,8 +4888,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164680</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4899,8 +4939,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164680</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4950,8 +4990,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164680</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5605,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,11 +5730,11 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>0.10810810810810811</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G3" s="42">
         <f>SUM(E3:E81)</f>
-        <v>1110</v>
+        <v>1230</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
@@ -5702,7 +5742,7 @@
       </c>
       <c r="J3" s="14">
         <f>COUNTIF($B$3:$B$500,I3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="15">
         <f>(J3/SUM($J$3:$J$7))</f>
@@ -5733,7 +5773,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F10" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>5.4054054054054057E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -5773,11 +5813,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G5" s="41">
         <f>G3/60</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -5814,7 +5854,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0.16216216216216217</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -5852,7 +5892,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -5905,7 +5945,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -5936,8 +5976,8 @@
         <v>120</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+        <f>IFERROR(E12/$G$3,"-")</f>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -5958,10 +5998,10 @@
         <v>134</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ref="E11" si="2">VALUE(LEFT(D11,2))*60+VALUE(RIGHT(D11,2))</f>
@@ -5969,7 +6009,7 @@
       </c>
       <c r="F11" s="11">
         <f>IFERROR(E11/$G$3,"-")</f>
-        <v>0.24324324324324326</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -5986,13 +6026,22 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="10">
+        <f>VALUE(LEFT(D12,2))*60+VALUE(RIGHT(D12,2))</f>
+        <v>120</v>
+      </c>
       <c r="F12" s="11">
         <f t="shared" ref="F12:F47" si="3">IFERROR(E12/$G$3,"-")</f>
-        <v>0</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -6586,15 +6635,15 @@
       </c>
       <c r="L36" s="20">
         <f>SUM(F3:F38)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M36" s="20">
         <f>L36^2</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="N36" s="16">
         <f>J36*L36</f>
-        <v>1035</v>
+        <v>1034.9999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -6636,7 +6685,7 @@
       </c>
       <c r="I38" s="3">
         <f>(I36*N36-J36*L36)/(I36*K36-(J36)^2)</f>
-        <v>-4.4681884409907724E-2</v>
+        <v>-4.4681884409907717E-2</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6661,7 +6710,7 @@
       </c>
       <c r="I39" s="17">
         <f>((L36)*(K36)-(J36)*(N36)) / ((I36)*(K36)-(J36^2))</f>
-        <v>1.0499055636500998</v>
+        <v>1.0499055636500996</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -6824,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,7 +7279,7 @@
         <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -7272,10 +7321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK33"/>
+  <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7287,7 +7336,7 @@
     <col min="5" max="5" width="18.5703125" style="54" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="54"/>
-    <col min="8" max="8" width="23" style="54"/>
+    <col min="8" max="8" width="28" style="54" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" style="54" customWidth="1"/>
     <col min="10" max="10" width="64" style="54"/>
     <col min="11" max="11" width="17.7109375" style="54"/>
@@ -7423,7 +7472,9 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="51" t="s">
+        <v>281</v>
+      </c>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7440,6 +7491,12 @@
         <v>42</v>
       </c>
       <c r="E7" s="41"/>
+      <c r="H7" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -7642,6 +7699,19 @@
       </c>
       <c r="C33" s="41" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7669,16 +7739,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7714,10 +7784,35 @@
         <v>79</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://ionicframework.com/"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="295">
   <si>
     <t>Day</t>
   </si>
@@ -1916,6 +1916,21 @@
   </si>
   <si>
     <t>11/3/2020</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>A range of text that is different from the normal text - technical terms, foreign language phrases, or fictional character thoughts. It is typically displayed in italic type.</t>
+  </si>
+  <si>
+    <t>.class:after</t>
+  </si>
+  <si>
+    <t>design right after the element</t>
+  </si>
+  <si>
+    <t>12/3/2020</t>
   </si>
 </sst>
 </file>
@@ -2779,6 +2794,9 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2817,9 +2835,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3036,11 +3051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80205312"/>
-        <c:axId val="61173120"/>
+        <c:axId val="115410432"/>
+        <c:axId val="115346816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80205312"/>
+        <c:axId val="115410432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61173120"/>
+        <c:crossAx val="115346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +3101,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61173120"/>
+        <c:axId val="115346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80205312"/>
+        <c:crossAx val="115410432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3318,17 +3333,20 @@
                 <c:pt idx="4">
                   <c:v>29/2/2018</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>5/3/2018</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>5/3/2019</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="7">
                   <c:v>11/3/2020</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>12/3/2019</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>12/3/2019</c:v>
+                  <c:v>12/3/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3340,34 +3358,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="177"/>
                 <c:pt idx="0">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.878048780487805E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14634146341463414</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21951219512195122</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7560975609756101E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3487,11 +3505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61174848"/>
-        <c:axId val="61175424"/>
+        <c:axId val="115348544"/>
+        <c:axId val="115349120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61174848"/>
+        <c:axId val="115348544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,12 +3547,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61175424"/>
+        <c:crossAx val="115349120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61175424"/>
+        <c:axId val="115349120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61174848"/>
+        <c:crossAx val="115348544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4646,8 +4664,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1020760</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
@@ -4694,8 +4712,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1020760</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>354100</xdr:rowOff>
     </xdr:to>
@@ -4742,8 +4760,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1989960</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7628760</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
@@ -4790,8 +4808,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1989960</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7628760</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
@@ -4838,8 +4856,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1989960</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7628760</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177020</xdr:rowOff>
     </xdr:to>
@@ -4886,8 +4904,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1971240</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7610040</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
@@ -4937,8 +4955,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1971240</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7610040</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
@@ -4988,8 +5006,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1971240</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7610040</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177380</xdr:rowOff>
     </xdr:to>
@@ -5646,7 +5664,7 @@
   <dimension ref="A1:AMK47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,11 +5748,11 @@
       </c>
       <c r="F3" s="11">
         <f>IFERROR(E3/$G$3,"-")</f>
-        <v>9.7560975609756101E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G3" s="42">
         <f>SUM(E3:E81)</f>
-        <v>1230</v>
+        <v>1350</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
@@ -5742,7 +5760,7 @@
       </c>
       <c r="J3" s="14">
         <f>COUNTIF($B$3:$B$500,I3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="15">
         <f>(J3/SUM($J$3:$J$7))</f>
@@ -5772,8 +5790,8 @@
         <v>60</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F10" si="0">IFERROR(E4/$G$3,"-")</f>
-        <v>4.878048780487805E-2</v>
+        <f t="shared" ref="F4:F9" si="0">IFERROR(E4/$G$3,"-")</f>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -5813,11 +5831,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>9.7560975609756101E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G5" s="41">
         <f>G3/60</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13"/>
@@ -5854,7 +5872,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0.14634146341463414</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -5892,7 +5910,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>9.7560975609756101E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -5915,9 +5933,22 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="10">
+        <f>VALUE(LEFT(D8,2))*60+VALUE(RIGHT(D8,2))</f>
+        <v>120</v>
+      </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(E8/$G$3,"-")</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G8"/>
       <c r="L8" s="3"/>
@@ -5934,7 +5965,7 @@
         <v>134</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>135</v>
@@ -5944,8 +5975,8 @@
         <v>120</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>9.7560975609756101E-2</v>
+        <f>IFERROR(E11/$G$3,"-")</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -5966,18 +5997,18 @@
         <v>134</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="E10" s="10">
-        <f>VALUE(LEFT(D10,2))*60+VALUE(RIGHT(D10,2))</f>
-        <v>120</v>
+        <f t="shared" ref="E10" si="2">VALUE(LEFT(D10,2))*60+VALUE(RIGHT(D10,2))</f>
+        <v>270</v>
       </c>
       <c r="F10" s="11">
-        <f>IFERROR(E12/$G$3,"-")</f>
-        <v>9.7560975609756101E-2</v>
+        <f>IFERROR(E10/$G$3,"-")</f>
+        <v>0.2</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -5998,18 +6029,18 @@
         <v>134</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11" si="2">VALUE(LEFT(D11,2))*60+VALUE(RIGHT(D11,2))</f>
-        <v>270</v>
+        <f>VALUE(LEFT(D11,2))*60+VALUE(RIGHT(D11,2))</f>
+        <v>120</v>
       </c>
       <c r="F11" s="11">
         <f>IFERROR(E11/$G$3,"-")</f>
-        <v>0.21951219512195122</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -6030,7 +6061,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>135</v>
@@ -6040,8 +6071,8 @@
         <v>120</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12:F47" si="3">IFERROR(E12/$G$3,"-")</f>
-        <v>9.7560975609756101E-2</v>
+        <f>IFERROR(E12/$G$3,"-")</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -6058,12 +6089,8 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
       <c r="F13" s="11">
-        <f t="shared" si="3"/>
+        <f>IFERROR(E13/$G$3,"-")</f>
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
@@ -6086,7 +6113,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F12:F47" si="3">IFERROR(E14/$G$3,"-")</f>
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
@@ -6635,15 +6662,15 @@
       </c>
       <c r="L36" s="20">
         <f>SUM(F3:F38)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="M36" s="20">
         <f>L36^2</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="N36" s="16">
         <f>J36*L36</f>
-        <v>1034.9999999999998</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -6685,7 +6712,7 @@
       </c>
       <c r="I38" s="3">
         <f>(I36*N36-J36*L36)/(I36*K36-(J36)^2)</f>
-        <v>-4.4681884409907717E-2</v>
+        <v>-4.4681884409907724E-2</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6710,7 +6737,7 @@
       </c>
       <c r="I39" s="17">
         <f>((L36)*(K36)-(J36)*(N36)) / ((I36)*(K36)-(J36^2))</f>
-        <v>1.0499055636500996</v>
+        <v>1.0499055636500998</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
@@ -6874,7 +6901,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6892,13 +6919,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
       <c r="H1" s="39" t="s">
         <v>154</v>
       </c>
@@ -7003,11 +7030,11 @@
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
@@ -7017,11 +7044,11 @@
         <v>219</v>
       </c>
       <c r="D10" s="97"/>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
@@ -7116,11 +7143,11 @@
         <v>226</v>
       </c>
       <c r="D17" s="99"/>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
     </row>
     <row r="18" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B18" s="77" t="s">
@@ -7273,6 +7300,14 @@
         <v>253</v>
       </c>
       <c r="D42" s="90"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="89" t="s">
@@ -7324,13 +7359,13 @@
   <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="54"/>
-    <col min="2" max="2" width="84.5703125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="153.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="54"/>
     <col min="5" max="5" width="18.5703125" style="54" customWidth="1"/>
@@ -7536,11 +7571,11 @@
       <c r="C12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
@@ -7549,11 +7584,11 @@
       <c r="C13" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="54" t="s">
@@ -7562,9 +7597,9 @@
       <c r="C14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
@@ -7606,6 +7641,14 @@
         <v>104</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="61" t="s">
         <v>110</v>
@@ -7707,7 +7750,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="106" t="s">
         <v>279</v>
       </c>
       <c r="C36" s="54" t="s">

--- a/Omnifood/Documantation/omniFood.xlsx
+++ b/Omnifood/Documantation/omniFood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2655" windowHeight="3240" tabRatio="826" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Meter" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="298">
   <si>
     <t>Day</t>
   </si>
@@ -1931,6 +1931,15 @@
   </si>
   <si>
     <t>12/3/2020</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>The &lt;figure&gt; tag specifies self-contained content, like illustrations, diagrams, photos, code listings, etc.</t>
+  </si>
+  <si>
+    <t>&lt;figure&gt; &lt;/figure&gt;</t>
   </si>
 </sst>
 </file>
@@ -3051,11 +3060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115410432"/>
-        <c:axId val="115346816"/>
+        <c:axId val="108451328"/>
+        <c:axId val="79129984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115410432"/>
+        <c:axId val="108451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115346816"/>
+        <c:crossAx val="79129984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3101,7 +3110,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115346816"/>
+        <c:axId val="79129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115410432"/>
+        <c:crossAx val="108451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3505,11 +3514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115348544"/>
-        <c:axId val="115349120"/>
+        <c:axId val="79131712"/>
+        <c:axId val="79132288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115348544"/>
+        <c:axId val="79131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,12 +3556,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115349120"/>
+        <c:crossAx val="79132288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115349120"/>
+        <c:axId val="79132288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115348544"/>
+        <c:crossAx val="79131712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4666,8 +4675,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1020760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>354100</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4714,8 +4723,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1020760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>354100</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5059,7 +5068,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5102,7 +5111,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5145,7 +5154,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5663,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5790,7 +5799,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F9" si="0">IFERROR(E4/$G$3,"-")</f>
+        <f t="shared" ref="F4:F7" si="0">IFERROR(E4/$G$3,"-")</f>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -6113,7 +6122,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11">
-        <f t="shared" ref="F12:F47" si="3">IFERROR(E14/$G$3,"-")</f>
+        <f t="shared" ref="F14:F47" si="3">IFERROR(E14/$G$3,"-")</f>
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
@@ -7356,10 +7365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK36"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7512,7 +7521,7 @@
       </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>30</v>
       </c>
@@ -7670,91 +7679,104 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C26" s="54" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="54" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C30" s="62" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B30" s="105" t="s">
+    <row r="31" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C31" s="104" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C34" s="41" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="61" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="106" t="s">
+    <row r="37" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C37" s="54" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
